--- a/resources/InhouseTestCases.xlsx
+++ b/resources/InhouseTestCases.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AvinashP\PycharmProjects\InhouseAutomation\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AvinashP\Automation\Saner-Inhouse-Automation\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28341D6B-77FC-4FC3-B0E7-BBF6123DA565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E789B0C-682D-469C-86C2-6F5B4627ED3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="InhouseAPIs" sheetId="2" r:id="rId2"/>
+    <sheet name="6.3-Inhouse" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="84">
   <si>
     <t>api</t>
   </si>
@@ -257,13 +258,46 @@
     <t>0</t>
   </si>
   <si>
-    <t>2025-03-25</t>
-  </si>
-  <si>
     <t xml:space="preserve">POST /AncorWebService/getancorsyncfileinbulk </t>
   </si>
   <si>
     <t>post call</t>
+  </si>
+  <si>
+    <t>Test the getancorserviceprovision api for an 6.4.X Inhouse</t>
+  </si>
+  <si>
+    <t>Test the getAgentAllowedActivationCount api for an 6.4.X Inhouse</t>
+  </si>
+  <si>
+    <t>Test the getclientactivationcount api for an 6.4.X Inhouse</t>
+  </si>
+  <si>
+    <t>Test the getrebrandingstatus api for an 6.4.X Inhouse</t>
+  </si>
+  <si>
+    <t>Test the getclientexpirydate api for an 6.4.X Inhouse</t>
+  </si>
+  <si>
+    <t>Test the getancorexpiry api for an 6.4.X Inhouse</t>
+  </si>
+  <si>
+    <t>Test the getwhitelabelstatus api for an 6.4.X Inhouse</t>
+  </si>
+  <si>
+    <t>Test the getapikeystatus api for an 6.4.X Inhouse</t>
+  </si>
+  <si>
+    <t>{"serviceprovision": [{"key": "vulnerabilitymanagement", "value": 1}, {"key": "patchmanagement", "value": 1}, {"key": "assetmanagement", "value": 1}, {"key": "compliancemanagement", "value": 1}, {"key": "endpointmanagement", "value": 1}, {"key": "edr", "value": 1}, {"key": "riskprioritization", "value": 1}, {"key": "devicemanagement", "value": 1}, {"key": "reportsalertsmanagement", "value": 1}, {"key": "auditing", "value": -1}]}</t>
+  </si>
+  <si>
+    <t>2030-12-30</t>
+  </si>
+  <si>
+    <t>Ancor:AccountMgmt&gt;addserveraccount -u inhouseadmin6313@secpod.com -p S3cP0d@123 -n Avinash -o secpod -e 2030-12-30 -em avinashad@secpod.com -agent 2000 -sp CVEM
+Server account created successfully
+Policy and Profile assignment info saved to /tmp/sp1r75tdlyefd7a-policy_profile.txt
+Ancor:AccountMgmt&gt;</t>
   </si>
 </sst>
 </file>
@@ -287,11 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9.8000000000000007"/>
       <name val="Courier New"/>
       <family val="3"/>
@@ -307,6 +336,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6AAB73"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -330,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -342,18 +377,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -636,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B24"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,10 +783,15 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>73</v>
+    </row>
+    <row r="21" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -767,15 +813,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDEB5F5-462F-417F-BF97-37BB81A8FBA5}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="52.88671875" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="53.109375" customWidth="1"/>
+    <col min="3" max="4" width="52.88671875" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="39.6640625" customWidth="1"/>
@@ -809,196 +855,196 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="6">
-        <v>200</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5">
+        <v>200</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="6">
-        <v>200</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5">
+        <v>200</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="6">
-        <v>200</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5">
+        <v>200</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="6">
-        <v>200</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5">
+        <v>200</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="6">
-        <v>200</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="D6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5">
+        <v>200</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="G6" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6">
-        <v>200</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5">
+        <v>200</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="G7" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="6">
-        <v>200</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="D8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5">
+        <v>200</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>68</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="6">
-        <v>200</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5">
+        <v>200</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>68</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E10">
@@ -1011,17 +1057,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E11">
@@ -1034,7 +1080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1044,7 +1090,7 @@
       <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E12">
@@ -1057,7 +1103,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1067,7 +1113,7 @@
       <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E13">
@@ -1080,7 +1126,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1090,7 +1136,7 @@
       <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E14">
@@ -1103,7 +1149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1113,7 +1159,7 @@
       <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E15">
@@ -1126,7 +1172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1136,7 +1182,7 @@
       <c r="C16" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E16">
@@ -1149,7 +1195,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1159,7 +1205,7 @@
       <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E17">
@@ -1172,7 +1218,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1182,7 +1228,7 @@
       <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E18">
@@ -1195,7 +1241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1205,7 +1251,7 @@
       <c r="C19" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E19">
@@ -1218,7 +1264,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1228,7 +1274,7 @@
       <c r="C20" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E20">
@@ -1242,8 +1288,492 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5694D559-403F-4653-9560-36C590325327}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3">
+        <v>200</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3">
+        <v>200</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3">
+        <v>200</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3">
+        <v>200</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3">
+        <v>200</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1">
+        <v>200</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1">
+        <v>200</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1">
+        <v>200</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1">
+        <v>200</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1">
+        <v>200</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1">
+        <v>200</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1">
+        <v>200</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1">
+        <v>200</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1">
+        <v>200</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1">
+        <v>200</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1">
+        <v>200</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/InhouseTestCases.xlsx
+++ b/resources/InhouseTestCases.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AvinashP\Automation\Saner-Inhouse-Automation\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E789B0C-682D-469C-86C2-6F5B4627ED3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45634B2-D88D-40C8-A177-13DE332632E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="InhouseAPIs" sheetId="2" r:id="rId2"/>
-    <sheet name="6.3-Inhouse" sheetId="3" r:id="rId3"/>
+    <sheet name="6.4-InhouseAPIs" sheetId="2" r:id="rId2"/>
+    <sheet name="6.3-InhouseAPIs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="95">
   <si>
     <t>api</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Expected Response</t>
   </si>
   <si>
-    <t>ZXlKaGJHY2lPaUpJVXpVeE1pSjkuZXlKbGVIQWlPakUzTkRJNE5qQTRNREFzSW1wMGFTSTZJbk53TVRkNU9XcG5PVGcyWjJONGR5SXNJbWx6Y3lJNklqazRPVEE0T1ROaExXUTNabVF0TkdKbU5TMDVaVEV3TFRReU9HWmhZbVZoTmpNMFlTSXNJbWxoZENJNk1UYzBNVGcxTmpFNE4zMC5McDlaMXV5STZyN1VfYUtRUzQwUUtqdy1ZNEdoYVBiRDNwM2x2SllJZDBWMGFnekxZaTA1eldZQ3hYZE1aRlJYczV1RWY2MVhPQ3YzNnc3aDRzSHZ0Zw==</t>
-  </si>
-  <si>
     <t>API Endpoint</t>
   </si>
   <si>
@@ -298,6 +295,42 @@
 Server account created successfully
 Policy and Profile assignment info saved to /tmp/sp1r75tdlyefd7a-policy_profile.txt
 Ancor:AccountMgmt&gt;</t>
+  </si>
+  <si>
+    <t>ZXlKaGJHY2lPaUpJVXpVeE1pSjkuZXlKbGVIQWlPakU1TWpRNE1Ua3lNREFzSW1wMGFTSTZJbk53TVRKeGVUVjRNR0l6ZUd4a015SXNJbWx6Y3lJNklqVmxabVEwTlRNekxURmpaakF0TkRJM01TMWlZVFJsTFdRME56UmtaV1ZoTkRBeVlpSXNJbWxoZENJNk1UYzBOREkyTkRVNE4zMC5Nb2cwZS1DRlZnZVltdnhac1RlNklUblFVVFR6NEtMdlZXbTduMENvMWxrSDJkNDhjWk55TzUxcW4xa01HcWVIejNYdEp2VlhOWkptY0NncU5Ib2JjUQ==</t>
+  </si>
+  <si>
+    <t>ZXlKaGJHY2lPaUpJVXpVeE1pSjkuZXlKbGVIQWlPakU1TWpRNE1Ua3lNREFzSW1wMGFTSTZJbk53TVRrME5tRXdaV1ZuZGpob01pSXNJbWx6Y3lJNklqa3dOR1F5TW1Vd0xURmpaakl0TkRCbFl5MDVaVE16TFRSbFpETTROR0l3TWpFMVlTSXNJbWxoZENJNk1UYzBORE0xTkRrMk1YMC5jb0phZ0dGallUamxDMUxVS2VsNTgyN3loQjE5aXEtQUFRMWlQc19ORHVjSi15dWxCNWpBTWZYb2htaWhfNzJ4b3hVWS1ieFF2VjVKYWpNM1UxellWUQ==</t>
+  </si>
+  <si>
+    <t>Test the syncthreatfeed api</t>
+  </si>
+  <si>
+    <t>Test the syncqueryfeed api</t>
+  </si>
+  <si>
+    <t>Test the syncRPMongoDump api</t>
+  </si>
+  <si>
+    <t>Test the syncRPFeed api</t>
+  </si>
+  <si>
+    <t>Test the syncplasmafeed api</t>
+  </si>
+  <si>
+    <t>Test the syncconfiguration api</t>
+  </si>
+  <si>
+    <t>Test the syncnsefeed api</t>
+  </si>
+  <si>
+    <t>Test the syncxmldata api</t>
+  </si>
+  <si>
+    <t>Test the syncresourcedata api</t>
+  </si>
+  <si>
+    <t>Test the syncmvecontent api</t>
   </si>
 </sst>
 </file>
@@ -783,15 +816,15 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -813,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDEB5F5-462F-417F-BF97-37BB81A8FBA5}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,7 +868,7 @@
         <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>21</v>
@@ -844,7 +877,7 @@
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
         <v>23</v>
@@ -855,19 +888,19 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E2" s="5">
         <v>200</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
@@ -878,19 +911,19 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E3" s="5">
         <v>200</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1">
         <v>2000</v>
@@ -901,19 +934,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E4" s="5">
         <v>200</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1">
         <v>2000</v>
@@ -924,22 +957,22 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E5" s="5">
         <v>200</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -947,22 +980,22 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E6" s="5">
         <v>200</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -970,22 +1003,22 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E7" s="5">
         <v>200</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -993,19 +1026,19 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E8" s="5">
         <v>200</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
@@ -1016,19 +1049,19 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E9" s="5">
         <v>200</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
@@ -1039,22 +1072,22 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -1062,22 +1095,22 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -1085,22 +1118,22 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E12">
         <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -1108,22 +1141,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E13">
         <v>200</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -1131,22 +1164,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E14">
         <v>200</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -1154,22 +1187,22 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E15">
         <v>200</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -1177,22 +1210,22 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E16">
         <v>200</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -1200,22 +1233,22 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E17">
         <v>200</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -1223,22 +1256,22 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E18">
         <v>200</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -1246,22 +1279,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E19">
         <v>200</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
@@ -1269,22 +1302,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E20">
         <v>200</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1298,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5694D559-403F-4653-9560-36C590325327}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1321,7 +1354,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
@@ -1330,13 +1363,13 @@
         <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1344,19 +1377,19 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E2" s="3">
         <v>200</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
@@ -1364,19 +1397,19 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E3" s="3">
         <v>200</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1">
         <v>2000</v>
@@ -1387,19 +1420,19 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E4" s="3">
         <v>200</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1">
         <v>2000</v>
@@ -1410,22 +1443,22 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E5" s="3">
         <v>200</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
@@ -1433,22 +1466,22 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E6" s="3">
         <v>200</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
@@ -1456,22 +1489,22 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E7" s="3">
         <v>200</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
@@ -1479,19 +1512,19 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>10</v>
@@ -1502,19 +1535,19 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
@@ -1525,22 +1558,22 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1">
         <v>200</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
@@ -1548,22 +1581,22 @@
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E11" s="1">
         <v>200</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
@@ -1571,22 +1604,22 @@
         <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E12" s="1">
         <v>200</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
@@ -1594,22 +1627,22 @@
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1">
         <v>200</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
@@ -1617,22 +1650,22 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1">
         <v>200</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
@@ -1640,22 +1673,22 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1">
         <v>200</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
@@ -1663,22 +1696,22 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1">
         <v>200</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
@@ -1686,22 +1719,22 @@
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E17" s="1">
         <v>200</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
@@ -1709,22 +1742,22 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E18" s="1">
         <v>200</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
@@ -1732,22 +1765,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E19" s="1">
         <v>200</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="176.4" x14ac:dyDescent="0.3">
@@ -1755,22 +1788,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="E20" s="1">
         <v>200</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
